--- a/pred_ohlcv/54_21/2019-10-29 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 PLY ohlcv.xlsx
@@ -3668,7 +3668,7 @@
         <v>-5138201.147700001</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-5663657.960800001</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-5757612.645800001</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-5447417.362600001</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-5824366.743400001</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-5537853.754900001</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-5537853.754900001</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-5846860.689600001</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-5846860.689600001</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-5934238.689600001</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-5773079.551300001</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-6057007.739800001</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-6057007.739800001</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-6057007.739800001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-6399993.381600002</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-6399993.381600002</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-6399993.381600002</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-5908448.208300002</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-5908448.208300002</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-5908448.208300002</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-5908448.208300002</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-5908448.208300002</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-5908448.208300002</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-5697763.289300002</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-6414429.433800003</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-6205880.465300002</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-5810265.063700002</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-5628942.418400002</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-6154089.418400002</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-6317718.592900001</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-6317718.592900001</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-5967052.628300002</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-5967052.628300002</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-5967052.628300002</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-5967052.628300002</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-6328270.073100002</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-6328270.073100002</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-6552100.850000001</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-4112435.6328</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-4112425.6328</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-4112425.6328</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-4247927.5171</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-4461578.4505</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-5045340.238799999</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-5045340.238799999</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-4903910.359399999</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-4767271.534999999</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-4903213.2541</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-4900100.061799999</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-4900100.061799999</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-4874090.061799999</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-4874090.061799999</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-4874090.061799999</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-4874090.061799999</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-4582488.679299999</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-4864372.763399999</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-4864372.763399999</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-4864372.763399999</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-4864372.763399999</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-4864372.763399999</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-4787499.273799999</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-4787499.273799999</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-4787499.273799999</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-4787499.273799999</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-4787489.273799999</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-4937139.885999999</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-4937139.885999999</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-4937139.885999999</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-5090760.408599999</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-5002418.387200001</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-4978877.367738462</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-4978202.848538462</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-4978392.372438462</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-4885857.683638464</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-4885857.683638464</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-4885857.683638464</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-4885857.683638464</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-4885857.683638464</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-4885857.683638464</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-4885857.683638464</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-4885857.683638464</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-5026107.661938463</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-4865511.645438463</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-4865511.645438463</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-4865511.645438463</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-5046593.463238464</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-5046593.463238464</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-4798610.690238464</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-4798610.690238464</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-4798610.690238464</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-4798610.690238464</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-4570475.638838463</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-4628248.206438463</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-4628248.206438463</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-4628248.206438463</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-4628248.206438463</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-4628248.206438463</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-4628248.206438463</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-4515092.644538463</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-4577826.994838463</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-4816146.921238463</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-4718216.294238463</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-4816438.205838463</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-4834166.290938463</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-4687304.873838463</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-4687304.873838463</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-4687304.873838463</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-4687304.873838463</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-5132662.899038463</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>19399243.40596154</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-163513946.3966077</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-163488605.1158077</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-163488605.1158077</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-163170516.2224077</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-163369161.2224077</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-163369161.2224077</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-163369161.2224077</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-163456821.2224077</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-163419221.2224077</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-163419221.2224077</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-163419221.2224077</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-163419221.2224077</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-163419221.2224077</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-163510184.0272077</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-163510184.0272077</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-163510184.0272077</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-163402143.5362077</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-163346363.8000077</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-164614789.6984077</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-164203243.6651077</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-164203243.6651077</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-164203243.6651077</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-164328481.4635077</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-164328481.4635077</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-164149564.7942077</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-164460515.8731077</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-164320973.8481077</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-164436078.1560077</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-163962456.3073078</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-163962456.3073078</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-163730908.0659078</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-164332592.8390078</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-164131843.3718078</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-164131833.3718078</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-164131833.3718078</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-164258011.4113078</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-164258011.4113078</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-164258011.4113078</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-164258011.4113078</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-164258011.4113078</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-165682667.2838078</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-165612970.4571078</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-165612970.4571078</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-165612970.4571078</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-165339569.1731077</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-165377165.3379077</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-165377165.3379077</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-165377165.3379077</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-165377155.3379077</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-163909770.4399077</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-163252951.6099077</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-162895939.7262089</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-162679613.7796089</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-163039235.7089089</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-162986717.8593089</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-162986717.8593089</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-163239175.6843089</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-163772610.9538089</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-163547588.9535685</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-163268206.2433685</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-163290866.2433685</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-163290866.2433685</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-163290876.2433685</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-163290876.2433685</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-163142924.1214685</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-163659583.3462685</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-164617968.7886685</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-164127961.0286685</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-164466205.9909685</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-164466205.9909685</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-164466205.9909685</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-164466205.9909685</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-163726695.7131685</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-163726695.7131685</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-163726742.8145685</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-163726742.8145685</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-163128133.5128685</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-163128133.5128685</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-163128133.5128685</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-162719693.5620685</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-162335398.3456685</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-162086314.2556685</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 PLY ohlcv.xlsx
@@ -3668,7 +3668,7 @@
         <v>-5138201.147700001</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-5663657.960800001</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-5757612.645800001</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-5447417.362600001</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-5824366.743400001</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-5537853.754900001</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-5537853.754900001</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-5846860.689600001</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-5846860.689600001</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-5934238.689600001</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-5773079.551300001</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-6057007.739800001</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-6057007.739800001</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-6057007.739800001</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-6399993.381600002</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-6399993.381600002</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-6399993.381600002</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-5908448.208300002</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-5908448.208300002</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-5908448.208300002</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-5908448.208300002</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-5908448.208300002</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-5908448.208300002</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-5697763.289300002</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-6414429.433800003</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-6205880.465300002</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-5810265.063700002</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-5628942.418400002</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-6154089.418400002</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-6317718.592900001</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-6317718.592900001</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-5967052.628300002</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-5967052.628300002</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-5967052.628300002</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-5967052.628300002</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-6328270.073100002</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-6328270.073100002</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-6552100.850000001</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-4112435.6328</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-4112425.6328</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-4112425.6328</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-4247927.5171</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-4461578.4505</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-5045340.238799999</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-5045340.238799999</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-4903910.359399999</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-4767271.534999999</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-4903213.2541</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-4900100.061799999</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-4900100.061799999</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-4874090.061799999</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-4874090.061799999</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-4874090.061799999</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-4874090.061799999</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-4582488.679299999</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-4864372.763399999</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-4864372.763399999</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-4864372.763399999</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-4864372.763399999</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-4864372.763399999</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-4787499.273799999</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-4787499.273799999</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-4787499.273799999</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-4787499.273799999</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-4787489.273799999</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-4937139.885999999</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-4937139.885999999</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-4937139.885999999</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-5090760.408599999</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-5002418.387200001</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>19399243.40596154</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-163513946.3966077</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-163488605.1158077</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-163488605.1158077</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-163170516.2224077</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-163369161.2224077</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-163369161.2224077</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-163369161.2224077</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-163456821.2224077</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-163419221.2224077</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-163419221.2224077</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-163419221.2224077</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-163419221.2224077</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-163419221.2224077</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-163510184.0272077</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-163510184.0272077</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-163510184.0272077</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-163402143.5362077</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-163346363.8000077</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-160081017.2590778</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-160271075.7753778</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-160109664.2585076</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-160322347.0387076</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-160566548.2110077</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-160603008.2110077</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-160603008.2110077</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-164614789.6984077</v>
       </c>
       <c r="H705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-164203243.6651077</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-164203243.6651077</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-164203243.6651077</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-164328481.4635077</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-164328481.4635077</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-164149564.7942077</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-164460515.8731077</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-164320973.8481077</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-164436078.1560077</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-163962456.3073078</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-163962456.3073078</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-163962456.3073078</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-163962456.3073078</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-163962456.3073078</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-163962456.3073078</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-163730908.0659078</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-164332592.8390078</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-164332592.8390078</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-164332592.8390078</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-164131843.3718078</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-164131833.3718078</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-164131833.3718078</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-164258011.4113078</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-164258011.4113078</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-164258011.4113078</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-164258011.4113078</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-164258011.4113078</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-164258011.4113078</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-165682667.2838078</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-165612970.4571078</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-165612970.4571078</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-165612970.4571078</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-165339619.1731077</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-165339569.1731077</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-165339569.1731077</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-165339569.1731077</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-165377165.3379077</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-165377165.3379077</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-165377165.3379077</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-165377165.3379077</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-165377155.3379077</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-165324949.5647077</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-165203938.9542077</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-165090408.9542077</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-163909780.4399077</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-163909770.4399077</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-163252951.6099077</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-163252951.6099077</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-162598966.5382089</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-162895939.7262089</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-162679613.7796089</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-163039235.7089089</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-162986717.8593089</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-162986717.8593089</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-163239175.6843089</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-163772610.9538089</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-163547588.9535685</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-163268206.2433685</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-163290866.2433685</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-163290866.2433685</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-163290876.2433685</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-163290876.2433685</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-162886975.7283685</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-163142924.1214685</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-163659583.3462685</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-163829497.4307685</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-164617968.7886685</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-164127961.0286685</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-164466205.9909685</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-164466205.9909685</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-164466205.9909685</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-164466205.9909685</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-163726695.7131685</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-163726695.7131685</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-163726742.8145685</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-163726742.8145685</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-163726742.8145685</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-163128133.5128685</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-163128133.5128685</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-163128133.5128685</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-163128133.5128685</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-162719693.5620685</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-162335398.3456685</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-162086314.2556685</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
